--- a/Email Details.xlsx
+++ b/Email Details.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD729B15-BD02-4774-BCA3-7B66D5E6B386}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475DEC6A-39C4-48B0-AD76-78ABE5DF746A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,60 @@
   </si>
   <si>
     <t>sudinmaney@gmail.com</t>
+  </si>
+  <si>
+    <t>Zubin Bajracharya</t>
+  </si>
+  <si>
+    <t>zubin.baz@gmail.com</t>
+  </si>
+  <si>
+    <t>Uttam Raj Giri</t>
+  </si>
+  <si>
+    <t>uttamraj.giri@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakshya Moktan</t>
+  </si>
+  <si>
+    <t>moktanrakshya1@gmail.com</t>
+  </si>
+  <si>
+    <t>Saijal Shakya</t>
+  </si>
+  <si>
+    <t>saijalshakya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohin Awale </t>
+  </si>
+  <si>
+    <t>rohinawale331@gmail.com</t>
+  </si>
+  <si>
+    <t>Binita Sapkota</t>
+  </si>
+  <si>
+    <t>binitasapkota12@gmail.com</t>
+  </si>
+  <si>
+    <t>Regina Tuladhar</t>
+  </si>
+  <si>
+    <t>reginatuladhar78@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjit Gurung</t>
+  </si>
+  <si>
+    <t>sanjitgurung94@gmail.com</t>
+  </si>
+  <si>
+    <t>Reshma Pakhreen Tamang</t>
+  </si>
+  <si>
+    <t>pakhrinreshma@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -375,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,11 +486,119 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>9860479947</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>9849982613</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>9823411889</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>9843935344</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>9813982829</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>9845707933</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>9860297596</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>9823251296</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>9860922735</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{5EB37326-51E5-4915-934E-094C6BABF579}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{D71A9911-C6AA-4CBD-A51B-CC16B2F4F099}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{2F341956-38D3-44E6-8106-9661413803A2}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{9B435F67-4559-4FDF-B83F-52D929E19CF8}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{FDE4DBA9-6EBA-4522-A2D8-390BB8D2B553}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{A0A2E081-168E-4622-A23C-3221718F174B}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{B649F8F8-B14E-47BE-BDBA-2EEA31B1F147}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{55ABC3CD-C6DD-42B6-B59F-317FA8706B7B}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{FD9065FA-56AB-44CD-9133-D2D5BB5A116E}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{CE3390F4-CE8E-4A6E-BF58-EEDB7EB55495}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{0BE9FC7E-4996-4439-8346-E08989E043E7}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{7046DF29-34EB-4C9C-958F-494C16F7E1BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
